--- a/generated_docs/WR_89699991_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89699991_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I20"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1043.3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>701.0599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>200.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -844,7 +844,7 @@
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>CNA-TR</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>CNA,Transfer Conductor</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
@@ -867,17 +867,85 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="inlineStr">
+      <c r="A20" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B20" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="10" t="inlineStr"/>
+      <c r="H20" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B21" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D21" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E21" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F21" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G21" s="13" t="inlineStr"/>
+      <c r="H21" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H20" s="16" t="n">
-        <v>1043.3</v>
+      <c r="H22" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -887,9 +955,9 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A22:G22"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A20:G20"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>

--- a/generated_docs/WR_89699991_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89699991_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I22"/>
+  <dimension ref="A2:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>1043.3</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P7</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>701.0599999999999</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>200.16</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="19">
@@ -844,7 +840,7 @@
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>CNA-TR</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,7 +850,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>CNA,Transfer Conductor</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
@@ -867,85 +863,17 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C20" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D20" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F20" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="10" t="inlineStr"/>
-      <c r="H20" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="12" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B21" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C21" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D21" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E21" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F21" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G21" s="13" t="inlineStr"/>
-      <c r="H21" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="15" t="inlineStr">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H22" s="16" t="n">
-        <v>0</v>
+      <c r="H20" s="16" t="n">
+        <v>1043.3</v>
       </c>
     </row>
   </sheetData>
@@ -955,9 +883,9 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A22:G22"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A20:G20"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
